--- a/Рабочий.xlsx
+++ b/Рабочий.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="108" yWindow="672" windowWidth="21600" windowHeight="11328" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-25500" yWindow="825" windowWidth="21600" windowHeight="11325" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Articles" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ChipDipData" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ETMData" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="YandexMarketData" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="eBayData" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="eBayData" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ETMData" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="YandexMarketData" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -405,16 +405,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN2"/>
+  <dimension ref="A1:BI2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21.88671875" customWidth="1" style="1" min="1" max="1"/>
-    <col width="11.21875" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="21.85546875" customWidth="1" style="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -430,287 +429,277 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>31556,00</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>4348,26</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>8155,95</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>3567,21</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>8624,00</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>7044,70</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>5171,46</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>6271,02</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>4577,58</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>4757,90</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>6426,84</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>8379,00</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>16072,00</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>6752,20</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>5130,30</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>8329,02</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>8324,12</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>7819,42</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>7730,24</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>6320,86</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>9040,50</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>8966,02</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>4993,10</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>8283,94</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>6007,40</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>31518,76</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>4995,52</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>10192,00</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>8134,00</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>6017,20</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>4042,50</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>8154,93</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>31183,60</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>31523,66</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>8370,18</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>8154,93</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>8538,74</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>5109,72</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>7584,22</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>10788,01</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>8390,76</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>11148,48</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>6129,90</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>8402,52</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>8400,56</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>12446,00</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>7889,00</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>11233,74</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>8126,16</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>7723,38</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
           <t>6869.86</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>10 417</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>7 170</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>20 835</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>7 097</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>5552,14</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>32358,20</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>4458,80</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>3649,45</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>7207,12</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>5302,93</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>8540,76</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>6430,44</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>9270,32</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>4878,85</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>5120,03</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>5110,70</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>6590,22</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>4693,95</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>8494,53</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>9193,95</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>8018,20</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>6466,60</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>6160,12</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>8342,95</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>8340,78</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>4145,27</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>6170,17</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>8342,95</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>8582,96</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>8592,01</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>8343,99</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>8338,77</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>8628,18</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>5239,62</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>3129,00</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>11007,70</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>16480,57</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>6923,85</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>8604,07</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>5260,72</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>7777,02</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>11431,89</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>8332,74</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>6285,73</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>8616,12</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>6214,38</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>11006,12</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>12963,38</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>12762,40</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>8530,71</t>
-        </is>
-      </c>
       <c r="BB1" t="inlineStr">
         <is>
-          <t>8089,55</t>
+          <t>20 274</t>
         </is>
       </c>
       <c r="BC1" t="inlineStr">
         <is>
-          <t>11519,32</t>
+          <t>10 134</t>
         </is>
       </c>
       <c r="BD1" t="inlineStr">
         <is>
-          <t>7919,72</t>
+          <t>6 975</t>
         </is>
       </c>
       <c r="BE1" t="inlineStr">
         <is>
-          <t>8528,70</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>8614,11</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>9838,10</t>
+          <t>6 905</t>
         </is>
       </c>
     </row>
@@ -722,327 +711,302 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6 860</t>
+          <t>Не найдено</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5 110</t>
+          <t>2956,53</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6 280</t>
+          <t>5782,00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3 180</t>
+          <t>8722,00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19 370</t>
+          <t>1382,78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>3058,48</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4410,00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1469,02</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1742,65</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1960,00</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1748,01</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1361,22</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>14700,00</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>33467,00</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>53190,06</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>6210,26</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>1292,62</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2554,86</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2547,02</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>1814,96</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>1745,37</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>1176,00</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>2682,26</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2548,00</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>1745,37</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>2242,89</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>2746,94</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>9581,20</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>10090,95</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>10032,84</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>23823,54</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>2538,20</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>1745,37</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>4802,00</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>1802,22</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>3302,60</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>2646,00</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>3822,00</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>1692,46</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>2548,00</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>2799,86</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>4096,40</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>1513,95</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>2548,00</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>2558,78</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>1273,02</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>3839,64</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>8924,21</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>1872,78</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>2006,06</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>2547,02</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>2118,76</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>2682,26</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>1660,73</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>10154,16</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
           <t>Не найдено</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2 452</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2 452</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>4 459</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2 800</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>2 385</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>4 339</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>2 724</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
         <is>
           <t>22 482</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>3024,70</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>8943,73</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>5928,99</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>2750,45</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>1417,93</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>3129,00</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>1506,36</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>2611,77</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>2009,83</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>2839,88</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>1395,82</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>15073,70</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>6368,13</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>9802,11</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>10323,61</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>2816,77</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>1861,10</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>2294,60</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>2602,72</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>1325,48</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>2871,04</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>1205,90</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>4924,07</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>1848,04</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>2612,77</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>2713,27</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>5665,57</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>6505,19</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>3919,16</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>5386,05</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>2611,77</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>2612,77</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>1735,48</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>3386,56</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>3818,67</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>34317,78</t>
-        </is>
-      </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>901,72</t>
-        </is>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>1004,91</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>2612,77</t>
-        </is>
-      </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>1305,38</t>
-        </is>
-      </c>
-      <c r="BA2" t="inlineStr">
-        <is>
-          <t>1548,85</t>
-        </is>
-      </c>
-      <c r="BB2" t="inlineStr">
-        <is>
-          <t>2623,83</t>
-        </is>
-      </c>
-      <c r="BC2" t="inlineStr">
-        <is>
-          <t>9119,14</t>
-        </is>
-      </c>
-      <c r="BD2" t="inlineStr">
-        <is>
-          <t>1920,39</t>
-        </is>
-      </c>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t>3937,25</t>
-        </is>
-      </c>
-      <c r="BF2" t="inlineStr">
-        <is>
-          <t>2057,06</t>
-        </is>
-      </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>2712,26</t>
-        </is>
-      </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>2172,62</t>
-        </is>
-      </c>
-      <c r="BI2" t="inlineStr">
-        <is>
-          <t>1971,27</t>
-        </is>
-      </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>7464,49</t>
-        </is>
-      </c>
-      <c r="BK2" t="inlineStr">
-        <is>
-          <t>2612,77</t>
-        </is>
-      </c>
-      <c r="BL2" t="inlineStr">
-        <is>
-          <t>2721,30</t>
-        </is>
-      </c>
-      <c r="BM2" t="inlineStr">
-        <is>
-          <t>4119,14</t>
-        </is>
-      </c>
-      <c r="BN2" t="inlineStr">
-        <is>
-          <t>3659,88</t>
         </is>
       </c>
     </row>
@@ -1053,69 +1017,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6ES7131-6BH01-0BA0 </t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Не найдено</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>6ES7193-6BP00-0DA0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>6 860</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5 110</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6 280</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3 180</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>19 370</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1137,7 +1038,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>6869.86</t>
+          <t>Не найдено</t>
         </is>
       </c>
     </row>
@@ -1158,85 +1059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6ES7131-6BH01-0BA0 </t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>10 417</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>7 170</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>20 835</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>7 097</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>6ES7193-6BP00-0DA0</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2 452</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2 452</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4 459</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2 800</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>22 482</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1258,262 +1081,252 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>5552,14</t>
+          <t>31556,00</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>32358,20</t>
+          <t>4348,26</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>4458,80</t>
+          <t>8155,95</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>3649,45</t>
+          <t>3567,21</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>7207,12</t>
+          <t>8624,00</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>5302,93</t>
+          <t>7044,70</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>8540,76</t>
+          <t>5171,46</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>6430,44</t>
+          <t>6271,02</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>9270,32</t>
+          <t>4577,58</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>4878,85</t>
+          <t>4757,90</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>5120,03</t>
+          <t>6426,84</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>5110,70</t>
+          <t>8379,00</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>6590,22</t>
+          <t>16072,00</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>4693,95</t>
+          <t>6752,20</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>8494,53</t>
+          <t>5130,30</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>9193,95</t>
+          <t>8329,02</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>8018,20</t>
+          <t>8324,12</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>6466,60</t>
+          <t>7819,42</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>6160,12</t>
+          <t>7730,24</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>8342,95</t>
+          <t>6320,86</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>8340,78</t>
+          <t>9040,50</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>4145,27</t>
+          <t>8966,02</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>6170,17</t>
+          <t>4993,10</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>8342,95</t>
+          <t>8283,94</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>8582,96</t>
+          <t>6007,40</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>8592,01</t>
+          <t>31518,76</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>8343,99</t>
+          <t>4995,52</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>8338,77</t>
+          <t>10192,00</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>8628,18</t>
+          <t>8134,00</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>5239,62</t>
+          <t>6017,20</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>3129,00</t>
+          <t>4042,50</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
         <is>
-          <t>11007,70</t>
+          <t>8154,93</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>16480,57</t>
+          <t>31183,60</t>
         </is>
       </c>
       <c r="AI1" t="inlineStr">
         <is>
-          <t>6923,85</t>
+          <t>31523,66</t>
         </is>
       </c>
       <c r="AJ1" t="inlineStr">
         <is>
-          <t>8604,07</t>
+          <t>8370,18</t>
         </is>
       </c>
       <c r="AK1" t="inlineStr">
         <is>
-          <t>5260,72</t>
+          <t>8154,93</t>
         </is>
       </c>
       <c r="AL1" t="inlineStr">
         <is>
-          <t>7777,02</t>
+          <t>8538,74</t>
         </is>
       </c>
       <c r="AM1" t="inlineStr">
         <is>
-          <t>11431,89</t>
+          <t>5109,72</t>
         </is>
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>8332,74</t>
+          <t>7584,22</t>
         </is>
       </c>
       <c r="AO1" t="inlineStr">
         <is>
-          <t>6285,73</t>
+          <t>10788,01</t>
         </is>
       </c>
       <c r="AP1" t="inlineStr">
         <is>
-          <t>8616,12</t>
+          <t>8390,76</t>
         </is>
       </c>
       <c r="AQ1" t="inlineStr">
         <is>
-          <t>6214,38</t>
+          <t>11148,48</t>
         </is>
       </c>
       <c r="AR1" t="inlineStr">
         <is>
-          <t>11006,12</t>
+          <t>6129,90</t>
         </is>
       </c>
       <c r="AS1" t="inlineStr">
         <is>
-          <t>12963,38</t>
+          <t>8402,52</t>
         </is>
       </c>
       <c r="AT1" t="inlineStr">
         <is>
-          <t>12762,40</t>
+          <t>8400,56</t>
         </is>
       </c>
       <c r="AU1" t="inlineStr">
         <is>
-          <t>8530,71</t>
+          <t>12446,00</t>
         </is>
       </c>
       <c r="AV1" t="inlineStr">
         <is>
-          <t>8089,55</t>
+          <t>7889,00</t>
         </is>
       </c>
       <c r="AW1" t="inlineStr">
         <is>
-          <t>11519,32</t>
+          <t>11233,74</t>
         </is>
       </c>
       <c r="AX1" t="inlineStr">
         <is>
-          <t>7919,72</t>
+          <t>8126,16</t>
         </is>
       </c>
       <c r="AY1" t="inlineStr">
         <is>
-          <t>8528,70</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>8614,11</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>9838,10</t>
+          <t>7723,38</t>
         </is>
       </c>
     </row>
@@ -1525,272 +1338,388 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3024,70</t>
+          <t>2956,53</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8943,73</t>
+          <t>5782,00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5928,99</t>
+          <t>8722,00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2750,45</t>
+          <t>1382,78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1417,93</t>
+          <t>3058,48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3129,00</t>
+          <t>4410,00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1506,36</t>
+          <t>1469,02</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2611,77</t>
+          <t>1742,65</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2009,83</t>
+          <t>1960,00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2839,88</t>
+          <t>1748,01</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1395,82</t>
+          <t>1361,22</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>15073,70</t>
+          <t>14700,00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>6368,13</t>
+          <t>33467,00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>9802,11</t>
+          <t>53190,06</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>10323,61</t>
+          <t>6210,26</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2816,77</t>
+          <t>1292,62</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1861,10</t>
+          <t>2554,86</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2294,60</t>
+          <t>2547,02</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2602,72</t>
+          <t>1814,96</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1325,48</t>
+          <t>1745,37</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2871,04</t>
+          <t>1176,00</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1205,90</t>
+          <t>2682,26</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>4924,07</t>
+          <t>2548,00</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1848,04</t>
+          <t>1745,37</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2612,77</t>
+          <t>2242,89</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2713,27</t>
+          <t>2746,94</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>5665,57</t>
+          <t>9581,20</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>6505,19</t>
+          <t>10090,95</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>3919,16</t>
+          <t>10032,84</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>5386,05</t>
+          <t>23823,54</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>2611,77</t>
+          <t>2538,20</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>2612,77</t>
+          <t>1745,37</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>1735,48</t>
+          <t>4802,00</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3386,56</t>
+          <t>1802,22</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>3818,67</t>
+          <t>3302,60</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>34317,78</t>
+          <t>2646,00</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>901,72</t>
+          <t>3822,00</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>1004,91</t>
+          <t>1692,46</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>2612,77</t>
+          <t>2548,00</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1305,38</t>
+          <t>2799,86</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>1548,85</t>
+          <t>4096,40</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>2623,83</t>
+          <t>1513,95</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>9119,14</t>
+          <t>2548,00</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>1920,39</t>
+          <t>2558,78</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>3937,25</t>
+          <t>1273,02</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>2057,06</t>
+          <t>3839,64</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>2712,26</t>
+          <t>8924,21</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>2172,62</t>
+          <t>1872,78</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>1971,27</t>
+          <t>2006,06</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>7464,49</t>
+          <t>2547,02</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>2612,77</t>
+          <t>2118,76</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>2721,30</t>
+          <t>2682,26</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>4119,14</t>
+          <t>1660,73</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>3659,88</t>
+          <t>10154,16</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6ES7131-6BH01-0BA0 </t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>6869.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>6ES7193-6BP00-0DA0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Не найдено</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6ES7131-6BH01-0BA0 </t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>20 274</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>10 134</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>6 975</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>6 905</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>6ES7193-6BP00-0DA0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2 385</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4 339</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2 724</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>22 482</t>
         </is>
       </c>
     </row>
